--- a/test_result_2.23.xlsx
+++ b/test_result_2.23.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -11,8 +11,7 @@
     <sheet name="ola" sheetId="2" r:id="rId2"/>
     <sheet name="wsola" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="96">
   <si>
     <t>Okay Google, take a picture.</t>
   </si>
@@ -315,12 +314,16 @@
   </si>
   <si>
     <t>OK Google turn on wireless hotspot</t>
+  </si>
+  <si>
+    <t>sphinx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +350,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,6 +427,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,12 +443,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -710,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,16 +737,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -848,37 +865,37 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3">
         <v>0.5</v>
       </c>
@@ -1053,7 +1070,7 @@
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1195,37 +1212,37 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3">
         <v>0.5</v>
       </c>
@@ -1400,16 +1417,16 @@
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1542,37 +1559,37 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3">
         <v>0.5</v>
       </c>
@@ -1747,7 +1764,7 @@
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1890,12 +1907,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A13:I13"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="A39:I39"/>
@@ -1904,6 +1915,12 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,18 +1942,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -2278,18 +2295,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">

--- a/test_result_2.23.xlsx
+++ b/test_result_2.23.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="97">
   <si>
     <t>Okay Google, take a picture.</t>
   </si>
@@ -317,6 +317,10 @@
   </si>
   <si>
     <t>sphinx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a port town of may get warmer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,23 +432,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -727,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,7 +741,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -746,7 +750,7 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -836,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
@@ -878,7 +882,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -895,7 +899,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3">
         <v>0.5</v>
       </c>
@@ -1070,7 +1074,7 @@
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1225,7 +1229,7 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1242,7 +1246,7 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3">
         <v>0.5</v>
       </c>
@@ -1417,16 +1421,16 @@
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1572,7 +1576,7 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1589,7 +1593,7 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="3">
         <v>0.5</v>
       </c>
@@ -1764,7 +1768,7 @@
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1907,6 +1911,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="A39:I39"/>
@@ -1915,12 +1925,6 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,18 +1946,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -2295,18 +2299,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
